--- a/src/test/java/com/MonacoTesting/Api_Excel_Data/Monaco_Client_Api's_online.xlsx
+++ b/src/test/java/com/MonacoTesting/Api_Excel_Data/Monaco_Client_Api's_online.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Negative" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$51</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1733" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="497">
   <si>
     <t>Rowno</t>
   </si>
@@ -1660,12 +1661,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,6 +1673,12 @@
       <color rgb="FF0D0D0D"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2408,10 +2409,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3692,48 +3693,48 @@
   <sheetPr/>
   <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E193" workbookViewId="0">
-      <selection activeCell="H198" sqref="H198"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.1416666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.2833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="47.425" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5666666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="22.5666666666667" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.1416666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.2833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.425" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.5666666666667" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="8" width="22.5666666666667" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -3751,12 +3752,12 @@
       <c r="F2" s="4">
         <v>404</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3774,12 +3775,12 @@
       <c r="F3" s="4">
         <v>404</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3797,12 +3798,12 @@
       <c r="F4" s="4">
         <v>404</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3820,12 +3821,12 @@
       <c r="F5" s="4">
         <v>404</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3843,12 +3844,12 @@
       <c r="F6" s="4">
         <v>404</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3866,12 +3867,12 @@
       <c r="F7" s="4">
         <v>404</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -3889,12 +3890,12 @@
       <c r="F8" s="4">
         <v>404</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -3912,12 +3913,12 @@
       <c r="F9" s="4">
         <v>404</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -3935,12 +3936,12 @@
       <c r="F10" s="4">
         <v>404</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -3958,12 +3959,12 @@
       <c r="F11" s="4">
         <v>404</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -3981,12 +3982,12 @@
       <c r="F12" s="4">
         <v>404</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -4004,12 +4005,12 @@
       <c r="F13" s="4">
         <v>404</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -4027,12 +4028,12 @@
       <c r="F14" s="4">
         <v>404</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -4050,12 +4051,12 @@
       <c r="F15" s="4">
         <v>404</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -4073,12 +4074,12 @@
       <c r="F16" s="4">
         <v>404</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -4096,12 +4097,12 @@
       <c r="F17" s="4">
         <v>404</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -4119,12 +4120,12 @@
       <c r="F18" s="4">
         <v>400</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -4142,12 +4143,12 @@
       <c r="F19" s="4">
         <v>404</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -4165,12 +4166,12 @@
       <c r="F20" s="4">
         <v>404</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -4188,12 +4189,12 @@
       <c r="F21" s="4">
         <v>404</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -4211,12 +4212,12 @@
       <c r="F22" s="4">
         <v>404</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -4234,12 +4235,12 @@
       <c r="F23" s="4">
         <v>404</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -4257,12 +4258,12 @@
       <c r="F24" s="4">
         <v>404</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4280,12 +4281,12 @@
       <c r="F25" s="4">
         <v>404</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -4303,12 +4304,12 @@
       <c r="F26" s="4">
         <v>404</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -4326,12 +4327,12 @@
       <c r="F27" s="4">
         <v>404</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -4349,12 +4350,12 @@
       <c r="F28" s="4">
         <v>404</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -4372,12 +4373,12 @@
       <c r="F29" s="4">
         <v>403</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -4395,12 +4396,12 @@
       <c r="F30" s="4">
         <v>404</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -4418,12 +4419,12 @@
       <c r="F31" s="4">
         <v>404</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -4441,12 +4442,12 @@
       <c r="F32" s="4">
         <v>404</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -4464,12 +4465,12 @@
       <c r="F33" s="4">
         <v>404</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -4487,12 +4488,12 @@
       <c r="F34" s="4">
         <v>404</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -4510,12 +4511,12 @@
       <c r="F35" s="4">
         <v>404</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -4533,12 +4534,12 @@
       <c r="F36" s="4">
         <v>404</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -4556,12 +4557,12 @@
       <c r="F37" s="4">
         <v>404</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -4579,12 +4580,12 @@
       <c r="F38" s="4">
         <v>404</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -4602,12 +4603,12 @@
       <c r="F39" s="4">
         <v>404</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -4625,12 +4626,12 @@
       <c r="F40" s="4">
         <v>403</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -4648,12 +4649,12 @@
       <c r="F41" s="4">
         <v>403</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -4671,12 +4672,12 @@
       <c r="F42" s="4">
         <v>404</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4694,12 +4695,12 @@
       <c r="F43" s="4">
         <v>404</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -4717,12 +4718,12 @@
       <c r="F44" s="4">
         <v>404</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -4740,12 +4741,12 @@
       <c r="F45" s="4">
         <v>404</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -4763,12 +4764,12 @@
       <c r="F46" s="4">
         <v>404</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -4786,12 +4787,12 @@
       <c r="F47" s="4">
         <v>302</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4809,12 +4810,12 @@
       <c r="F48" s="4">
         <v>302</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -4832,12 +4833,12 @@
       <c r="F49" s="4">
         <v>302</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -4852,15 +4853,15 @@
       <c r="E50" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="1">
-        <v>404</v>
-      </c>
-      <c r="G50" s="1" t="s">
+      <c r="F50" s="3">
+        <v>404</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -4875,15 +4876,15 @@
       <c r="E51" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F51" s="1">
-        <v>404</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="F51" s="3">
+        <v>404</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -4898,15 +4899,15 @@
       <c r="E52" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F52" s="1">
-        <v>404</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="F52" s="3">
+        <v>404</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -4921,15 +4922,15 @@
       <c r="E53" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F53" s="1">
-        <v>404</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="F53" s="3">
+        <v>404</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -4944,15 +4945,15 @@
       <c r="E54" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="1">
-        <v>404</v>
-      </c>
-      <c r="G54" s="1" t="s">
+      <c r="F54" s="3">
+        <v>404</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4967,15 +4968,15 @@
       <c r="E55" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="1">
-        <v>404</v>
-      </c>
-      <c r="G55" s="1" t="s">
+      <c r="F55" s="3">
+        <v>404</v>
+      </c>
+      <c r="G55" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -4990,15 +4991,15 @@
       <c r="E56" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F56" s="1">
-        <v>404</v>
-      </c>
-      <c r="G56" s="1" t="s">
+      <c r="F56" s="3">
+        <v>404</v>
+      </c>
+      <c r="G56" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -5013,15 +5014,15 @@
       <c r="E57" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="1">
-        <v>404</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="F57" s="3">
+        <v>404</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -5036,15 +5037,15 @@
       <c r="E58" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F58" s="1">
-        <v>404</v>
-      </c>
-      <c r="G58" s="1" t="s">
+      <c r="F58" s="3">
+        <v>404</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -5059,15 +5060,15 @@
       <c r="E59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F59" s="1">
-        <v>404</v>
-      </c>
-      <c r="G59" s="1" t="s">
+      <c r="F59" s="3">
+        <v>404</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -5082,15 +5083,15 @@
       <c r="E60" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F60" s="1">
-        <v>404</v>
-      </c>
-      <c r="G60" s="1" t="s">
+      <c r="F60" s="3">
+        <v>404</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -5105,15 +5106,15 @@
       <c r="E61" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F61" s="1">
-        <v>404</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="F61" s="3">
+        <v>404</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -5128,15 +5129,15 @@
       <c r="E62" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="1">
-        <v>404</v>
-      </c>
-      <c r="G62" s="1" t="s">
+      <c r="F62" s="3">
+        <v>404</v>
+      </c>
+      <c r="G62" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -5151,15 +5152,15 @@
       <c r="E63" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F63" s="1">
-        <v>404</v>
-      </c>
-      <c r="G63" s="1" t="s">
+      <c r="F63" s="3">
+        <v>404</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -5174,15 +5175,15 @@
       <c r="E64" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F64" s="1">
-        <v>404</v>
-      </c>
-      <c r="G64" s="1" t="s">
+      <c r="F64" s="3">
+        <v>404</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -5197,15 +5198,15 @@
       <c r="E65" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="1">
-        <v>404</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="F65" s="3">
+        <v>404</v>
+      </c>
+      <c r="G65" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -5220,15 +5221,15 @@
       <c r="E66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F66" s="1">
-        <v>404</v>
-      </c>
-      <c r="G66" s="1" t="s">
+      <c r="F66" s="3">
+        <v>404</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5243,15 +5244,15 @@
       <c r="E67" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="1">
-        <v>404</v>
-      </c>
-      <c r="G67" s="1" t="s">
+      <c r="F67" s="3">
+        <v>404</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -5266,15 +5267,15 @@
       <c r="E68" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F68" s="1">
-        <v>404</v>
-      </c>
-      <c r="G68" s="1" t="s">
+      <c r="F68" s="3">
+        <v>404</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -5289,15 +5290,15 @@
       <c r="E69" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F69" s="1">
-        <v>404</v>
-      </c>
-      <c r="G69" s="1" t="s">
+      <c r="F69" s="3">
+        <v>404</v>
+      </c>
+      <c r="G69" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -5312,15 +5313,15 @@
       <c r="E70" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F70" s="1">
-        <v>404</v>
-      </c>
-      <c r="G70" s="1" t="s">
+      <c r="F70" s="3">
+        <v>404</v>
+      </c>
+      <c r="G70" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -5335,15 +5336,15 @@
       <c r="E71" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F71" s="1">
-        <v>404</v>
-      </c>
-      <c r="G71" s="1" t="s">
+      <c r="F71" s="3">
+        <v>404</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -5358,15 +5359,15 @@
       <c r="E72" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F72" s="1">
-        <v>404</v>
-      </c>
-      <c r="G72" s="1" t="s">
+      <c r="F72" s="3">
+        <v>404</v>
+      </c>
+      <c r="G72" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -5381,15 +5382,15 @@
       <c r="E73" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="1">
-        <v>404</v>
-      </c>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="3">
+        <v>404</v>
+      </c>
+      <c r="G73" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -5404,15 +5405,15 @@
       <c r="E74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F74" s="1">
-        <v>404</v>
-      </c>
-      <c r="G74" s="1" t="s">
+      <c r="F74" s="3">
+        <v>404</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -5427,15 +5428,15 @@
       <c r="E75" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F75" s="1">
-        <v>404</v>
-      </c>
-      <c r="G75" s="1" t="s">
+      <c r="F75" s="3">
+        <v>404</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -5450,15 +5451,15 @@
       <c r="E76" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F76" s="1">
-        <v>404</v>
-      </c>
-      <c r="G76" s="1" t="s">
+      <c r="F76" s="3">
+        <v>404</v>
+      </c>
+      <c r="G76" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -5473,15 +5474,15 @@
       <c r="E77" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="1">
-        <v>404</v>
-      </c>
-      <c r="G77" s="1" t="s">
+      <c r="F77" s="3">
+        <v>404</v>
+      </c>
+      <c r="G77" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -5496,15 +5497,15 @@
       <c r="E78" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F78" s="1">
-        <v>404</v>
-      </c>
-      <c r="G78" s="1" t="s">
+      <c r="F78" s="3">
+        <v>404</v>
+      </c>
+      <c r="G78" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -5519,15 +5520,15 @@
       <c r="E79" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F79" s="1">
-        <v>404</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="F79" s="3">
+        <v>404</v>
+      </c>
+      <c r="G79" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -5542,15 +5543,15 @@
       <c r="E80" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="1">
-        <v>404</v>
-      </c>
-      <c r="G80" s="1" t="s">
+      <c r="F80" s="3">
+        <v>404</v>
+      </c>
+      <c r="G80" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5565,15 +5566,15 @@
       <c r="E81" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F81" s="1">
-        <v>404</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="F81" s="3">
+        <v>404</v>
+      </c>
+      <c r="G81" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -5588,15 +5589,15 @@
       <c r="E82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F82" s="1">
-        <v>404</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="F82" s="3">
+        <v>404</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -5611,15 +5612,15 @@
       <c r="E83" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F83" s="1">
-        <v>404</v>
-      </c>
-      <c r="G83" s="1" t="s">
+      <c r="F83" s="3">
+        <v>404</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -5634,15 +5635,15 @@
       <c r="E84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F84" s="1">
-        <v>404</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="F84" s="3">
+        <v>404</v>
+      </c>
+      <c r="G84" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5657,15 +5658,15 @@
       <c r="E85" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="1">
-        <v>404</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="F85" s="3">
+        <v>404</v>
+      </c>
+      <c r="G85" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -5680,15 +5681,15 @@
       <c r="E86" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F86" s="1">
-        <v>404</v>
-      </c>
-      <c r="G86" s="1" t="s">
+      <c r="F86" s="3">
+        <v>404</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -5703,15 +5704,15 @@
       <c r="E87" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F87" s="1">
-        <v>404</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="F87" s="3">
+        <v>404</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -5726,15 +5727,15 @@
       <c r="E88" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F88" s="1">
-        <v>404</v>
-      </c>
-      <c r="G88" s="1" t="s">
+      <c r="F88" s="3">
+        <v>404</v>
+      </c>
+      <c r="G88" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -5749,15 +5750,15 @@
       <c r="E89" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F89" s="1">
-        <v>404</v>
-      </c>
-      <c r="G89" s="1" t="s">
+      <c r="F89" s="3">
+        <v>404</v>
+      </c>
+      <c r="G89" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -5772,15 +5773,15 @@
       <c r="E90" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F90" s="1">
-        <v>404</v>
-      </c>
-      <c r="G90" s="1" t="s">
+      <c r="F90" s="3">
+        <v>404</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -5795,15 +5796,15 @@
       <c r="E91" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F91" s="1">
-        <v>404</v>
-      </c>
-      <c r="G91" s="1" t="s">
+      <c r="F91" s="3">
+        <v>404</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -5818,15 +5819,15 @@
       <c r="E92" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F92" s="1">
-        <v>404</v>
-      </c>
-      <c r="G92" s="1" t="s">
+      <c r="F92" s="3">
+        <v>404</v>
+      </c>
+      <c r="G92" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -5841,15 +5842,15 @@
       <c r="E93" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F93" s="1">
-        <v>404</v>
-      </c>
-      <c r="G93" s="1" t="s">
+      <c r="F93" s="3">
+        <v>404</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -5864,15 +5865,15 @@
       <c r="E94" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F94" s="1">
-        <v>404</v>
-      </c>
-      <c r="G94" s="1" t="s">
+      <c r="F94" s="3">
+        <v>404</v>
+      </c>
+      <c r="G94" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -5887,15 +5888,15 @@
       <c r="E95" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F95" s="1">
-        <v>404</v>
-      </c>
-      <c r="G95" s="1" t="s">
+      <c r="F95" s="3">
+        <v>404</v>
+      </c>
+      <c r="G95" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -5910,15 +5911,15 @@
       <c r="E96" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F96" s="1">
-        <v>404</v>
-      </c>
-      <c r="G96" s="1" t="s">
+      <c r="F96" s="3">
+        <v>404</v>
+      </c>
+      <c r="G96" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -5933,15 +5934,15 @@
       <c r="E97" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F97" s="1">
-        <v>404</v>
-      </c>
-      <c r="G97" s="1" t="s">
+      <c r="F97" s="3">
+        <v>404</v>
+      </c>
+      <c r="G97" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -5956,15 +5957,15 @@
       <c r="E98" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="3">
         <v>200</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="G98" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -5979,15 +5980,15 @@
       <c r="E99" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="3">
         <v>200</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="G99" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:7">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -6002,15 +6003,15 @@
       <c r="E100" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="G100" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6025,15 +6026,15 @@
       <c r="E101" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="G101" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -6048,15 +6049,15 @@
       <c r="E102" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="G102" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:7">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -6071,15 +6072,15 @@
       <c r="E103" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="3">
         <v>400</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="G103" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -6094,15 +6095,15 @@
       <c r="E104" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="3">
         <v>200</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="G104" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:7">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -6117,15 +6118,15 @@
       <c r="E105" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="3">
         <v>200</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G105" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:7">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -6140,15 +6141,15 @@
       <c r="E106" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="3">
         <v>200</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:7">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -6163,15 +6164,15 @@
       <c r="E107" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="3">
         <v>200</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="G107" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:7">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -6186,15 +6187,15 @@
       <c r="E108" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="3">
         <v>400</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G108" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -6209,15 +6210,15 @@
       <c r="E109" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="3">
         <v>400</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G109" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -6232,15 +6233,15 @@
       <c r="E110" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="3">
         <v>200</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="G110" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -6255,15 +6256,15 @@
       <c r="E111" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F111" s="1">
-        <v>404</v>
-      </c>
-      <c r="G111" s="1" t="s">
+      <c r="F111" s="3">
+        <v>400</v>
+      </c>
+      <c r="G111" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:7">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -6278,15 +6279,15 @@
       <c r="E112" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F112" s="1">
-        <v>404</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="F112" s="3">
+        <v>404</v>
+      </c>
+      <c r="G112" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:7">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -6301,15 +6302,15 @@
       <c r="E113" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="3">
         <v>400</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="G113" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -6324,15 +6325,15 @@
       <c r="E114" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="3">
         <v>400</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="G114" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:7">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -6347,15 +6348,15 @@
       <c r="E115" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="3">
         <v>400</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="G115" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:7">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -6370,15 +6371,15 @@
       <c r="E116" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="3">
         <v>400</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="G116" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:7">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -6393,15 +6394,15 @@
       <c r="E117" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="3">
         <v>400</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="G117" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:7">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -6416,15 +6417,15 @@
       <c r="E118" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="3">
         <v>200</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="G118" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:7">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -6439,15 +6440,15 @@
       <c r="E119" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="3">
         <v>400</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="G119" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:7">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -6462,15 +6463,15 @@
       <c r="E120" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="3">
         <v>400</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="G120" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:7">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -6485,15 +6486,15 @@
       <c r="E121" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="3">
         <v>400</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="G121" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -6508,15 +6509,15 @@
       <c r="E122" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F122" s="1">
-        <v>404</v>
-      </c>
-      <c r="G122" s="1" t="s">
+      <c r="F122" s="3">
+        <v>404</v>
+      </c>
+      <c r="G122" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -6531,15 +6532,15 @@
       <c r="E123" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="3">
         <v>400</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="G123" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:7">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -6554,15 +6555,15 @@
       <c r="E124" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="3">
         <v>400</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G124" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -6577,15 +6578,15 @@
       <c r="E125" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="3">
         <v>403</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G125" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -6600,15 +6601,15 @@
       <c r="E126" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F126" s="1">
-        <v>404</v>
-      </c>
-      <c r="G126" s="1" t="s">
+      <c r="F126" s="3">
+        <v>404</v>
+      </c>
+      <c r="G126" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -6623,15 +6624,15 @@
       <c r="E127" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F127" s="1">
-        <v>404</v>
-      </c>
-      <c r="G127" s="1" t="s">
+      <c r="F127" s="3">
+        <v>404</v>
+      </c>
+      <c r="G127" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -6646,15 +6647,15 @@
       <c r="E128" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="3">
         <v>400</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -6669,15 +6670,15 @@
       <c r="E129" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F129" s="1">
-        <v>404</v>
-      </c>
-      <c r="G129" s="1" t="s">
+      <c r="F129" s="3">
+        <v>404</v>
+      </c>
+      <c r="G129" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -6692,15 +6693,15 @@
       <c r="E130" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F130" s="1">
-        <v>404</v>
-      </c>
-      <c r="G130" s="1" t="s">
+      <c r="F130" s="3">
+        <v>404</v>
+      </c>
+      <c r="G130" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -6715,15 +6716,15 @@
       <c r="E131" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F131" s="1">
-        <v>404</v>
-      </c>
-      <c r="G131" s="1" t="s">
+      <c r="F131" s="3">
+        <v>404</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="A132" s="1" t="s">
+      <c r="A132" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -6738,15 +6739,15 @@
       <c r="E132" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F132" s="1">
-        <v>404</v>
-      </c>
-      <c r="G132" s="1" t="s">
+      <c r="F132" s="3">
+        <v>404</v>
+      </c>
+      <c r="G132" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="1" t="s">
+      <c r="A133" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -6761,15 +6762,15 @@
       <c r="E133" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="3">
         <v>200</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G133" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -6784,15 +6785,15 @@
       <c r="E134" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="3">
         <v>400</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G134" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -6807,15 +6808,15 @@
       <c r="E135" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="3">
         <v>400</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G135" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -6830,15 +6831,15 @@
       <c r="E136" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="3">
         <v>403</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="G136" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="1" t="s">
+      <c r="A137" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -6853,15 +6854,15 @@
       <c r="E137" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="3">
         <v>403</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="G137" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="1" t="s">
+      <c r="A138" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -6876,15 +6877,15 @@
       <c r="E138" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F138" s="1">
-        <v>404</v>
-      </c>
-      <c r="G138" s="1" t="s">
+      <c r="F138" s="3">
+        <v>404</v>
+      </c>
+      <c r="G138" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:7">
-      <c r="A139" s="1" t="s">
+      <c r="A139" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -6899,15 +6900,15 @@
       <c r="E139" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F139" s="1">
-        <v>404</v>
-      </c>
-      <c r="G139" s="1" t="s">
+      <c r="F139" s="3">
+        <v>404</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="1" t="s">
+      <c r="A140" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -6922,15 +6923,15 @@
       <c r="E140" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F140" s="3">
         <v>200</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="G140" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -6945,15 +6946,15 @@
       <c r="E141" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="3">
         <v>400</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="G141" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:7">
-      <c r="A142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B142" s="4" t="s">
@@ -6968,15 +6969,15 @@
       <c r="E142" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F142" s="3">
         <v>400</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -6991,15 +6992,15 @@
       <c r="E143" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F143" s="3">
         <v>200</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" s="1" t="s">
+      <c r="A144" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B144" s="4" t="s">
@@ -7014,15 +7015,15 @@
       <c r="E144" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="3">
         <v>200</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="G144" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:7">
-      <c r="A145" s="1" t="s">
+      <c r="A145" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -7037,15 +7038,15 @@
       <c r="E145" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="3">
         <v>200</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="G145" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" s="1" t="s">
+      <c r="A146" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -7060,15 +7061,15 @@
       <c r="E146" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F146" s="3">
         <v>400</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:7">
-      <c r="A147" s="1" t="s">
+      <c r="A147" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -7083,15 +7084,15 @@
       <c r="E147" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F147" s="3">
         <v>200</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="1" t="s">
+      <c r="A148" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -7106,15 +7107,15 @@
       <c r="E148" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="3">
         <v>400</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -7129,15 +7130,15 @@
       <c r="E149" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="3">
         <v>200</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="1" t="s">
+      <c r="A150" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -7152,15 +7153,15 @@
       <c r="E150" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="F150" s="1">
+      <c r="F150" s="3">
         <v>200</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="1" t="s">
+      <c r="A151" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -7175,15 +7176,15 @@
       <c r="E151" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F151" s="1">
+      <c r="F151" s="3">
         <v>400</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="1" t="s">
+      <c r="A152" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -7198,15 +7199,15 @@
       <c r="E152" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F152" s="1">
-        <v>404</v>
-      </c>
-      <c r="G152" s="1" t="s">
+      <c r="F152" s="3">
+        <v>404</v>
+      </c>
+      <c r="G152" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -7221,15 +7222,15 @@
       <c r="E153" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F153" s="1">
-        <v>404</v>
-      </c>
-      <c r="G153" s="1" t="s">
+      <c r="F153" s="3">
+        <v>404</v>
+      </c>
+      <c r="G153" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:7">
-      <c r="A154" s="1" t="s">
+      <c r="A154" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -7244,15 +7245,15 @@
       <c r="E154" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F154" s="1">
-        <v>404</v>
-      </c>
-      <c r="G154" s="1" t="s">
+      <c r="F154" s="3">
+        <v>404</v>
+      </c>
+      <c r="G154" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:7">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B155" s="4" t="s">
@@ -7267,15 +7268,15 @@
       <c r="E155" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F155" s="1">
-        <v>404</v>
-      </c>
-      <c r="G155" s="1" t="s">
+      <c r="F155" s="3">
+        <v>404</v>
+      </c>
+      <c r="G155" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:7">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B156" s="4" t="s">
@@ -7290,15 +7291,15 @@
       <c r="E156" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F156" s="1">
+      <c r="F156" s="3">
         <v>400</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="1" t="s">
+      <c r="A157" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B157" s="4" t="s">
@@ -7313,15 +7314,15 @@
       <c r="E157" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F157" s="1">
-        <v>404</v>
-      </c>
-      <c r="G157" s="1" t="s">
+      <c r="F157" s="3">
+        <v>404</v>
+      </c>
+      <c r="G157" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="1" t="s">
+      <c r="A158" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B158" s="4" t="s">
@@ -7336,15 +7337,15 @@
       <c r="E158" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="F158" s="1">
-        <v>404</v>
-      </c>
-      <c r="G158" s="1" t="s">
+      <c r="F158" s="3">
+        <v>404</v>
+      </c>
+      <c r="G158" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:7">
-      <c r="A159" s="1" t="s">
+      <c r="A159" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B159" s="4" t="s">
@@ -7359,15 +7360,15 @@
       <c r="E159" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="3">
         <v>400</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:7">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B160" s="4" t="s">
@@ -7382,15 +7383,15 @@
       <c r="E160" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F160" s="3">
         <v>400</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:7">
-      <c r="A161" s="1" t="s">
+      <c r="A161" s="3" t="s">
         <v>322</v>
       </c>
       <c r="B161" s="4" t="s">
@@ -7405,15 +7406,15 @@
       <c r="E161" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F161" s="1">
+      <c r="F161" s="3">
         <v>200</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:7">
-      <c r="A162" s="1" t="s">
+      <c r="A162" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -7428,15 +7429,15 @@
       <c r="E162" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="F162" s="1">
+      <c r="F162" s="3">
         <v>200</v>
       </c>
-      <c r="G162" s="1" t="s">
+      <c r="G162" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:7">
-      <c r="A163" s="1" t="s">
+      <c r="A163" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B163" s="4" t="s">
@@ -7451,15 +7452,15 @@
       <c r="E163" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F163" s="1">
-        <v>404</v>
-      </c>
-      <c r="G163" s="1" t="s">
+      <c r="F163" s="3">
+        <v>404</v>
+      </c>
+      <c r="G163" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:7">
-      <c r="A164" s="1" t="s">
+      <c r="A164" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B164" s="4" t="s">
@@ -7474,15 +7475,15 @@
       <c r="E164" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F164" s="1">
-        <v>404</v>
-      </c>
-      <c r="G164" s="1" t="s">
+      <c r="F164" s="3">
+        <v>404</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:7">
-      <c r="A165" s="1" t="s">
+      <c r="A165" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B165" s="4" t="s">
@@ -7497,15 +7498,15 @@
       <c r="E165" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="F165" s="1">
-        <v>404</v>
-      </c>
-      <c r="G165" s="1" t="s">
+      <c r="F165" s="3">
+        <v>404</v>
+      </c>
+      <c r="G165" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:7">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B166" s="4" t="s">
@@ -7520,15 +7521,15 @@
       <c r="E166" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F166" s="1">
-        <v>404</v>
-      </c>
-      <c r="G166" s="1" t="s">
+      <c r="F166" s="3">
+        <v>404</v>
+      </c>
+      <c r="G166" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:7">
-      <c r="A167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>332</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -7543,15 +7544,15 @@
       <c r="E167" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F167" s="1">
+      <c r="F167" s="3">
         <v>400</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:7">
-      <c r="A168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -7566,15 +7567,15 @@
       <c r="E168" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F168" s="1">
+      <c r="F168" s="3">
         <v>400</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:7">
-      <c r="A169" s="1" t="s">
+      <c r="A169" s="3" t="s">
         <v>335</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -7589,15 +7590,15 @@
       <c r="E169" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F169" s="1">
+      <c r="F169" s="3">
         <v>400</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:7">
-      <c r="A170" s="1" t="s">
+      <c r="A170" s="3" t="s">
         <v>337</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -7612,15 +7613,15 @@
       <c r="E170" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F170" s="1">
+      <c r="F170" s="3">
         <v>400</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="G170" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="1" t="s">
+      <c r="A171" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -7635,15 +7636,15 @@
       <c r="E171" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F171" s="1">
+      <c r="F171" s="3">
         <v>400</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G171" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="1" t="s">
+      <c r="A172" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -7658,15 +7659,15 @@
       <c r="E172" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F172" s="1">
+      <c r="F172" s="3">
         <v>400</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:7">
-      <c r="A173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>346</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -7681,15 +7682,15 @@
       <c r="E173" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F173" s="1">
+      <c r="F173" s="3">
         <v>400</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="1" t="s">
+      <c r="A174" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -7704,15 +7705,15 @@
       <c r="E174" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F174" s="1">
+      <c r="F174" s="3">
         <v>400</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:7">
-      <c r="A175" s="1" t="s">
+      <c r="A175" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -7727,15 +7728,15 @@
       <c r="E175" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F175" s="1">
+      <c r="F175" s="3">
         <v>400</v>
       </c>
-      <c r="G175" s="1" t="s">
+      <c r="G175" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>354</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -7750,15 +7751,15 @@
       <c r="E176" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F176" s="1">
+      <c r="F176" s="3">
         <v>400</v>
       </c>
-      <c r="G176" s="1" t="s">
+      <c r="G176" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:7">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>357</v>
       </c>
       <c r="B177" s="4" t="s">
@@ -7773,15 +7774,15 @@
       <c r="E177" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F177" s="1">
+      <c r="F177" s="3">
         <v>400</v>
       </c>
-      <c r="G177" s="1" t="s">
+      <c r="G177" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="178" spans="1:7">
-      <c r="A178" s="1" t="s">
+      <c r="A178" s="3" t="s">
         <v>360</v>
       </c>
       <c r="B178" s="4" t="s">
@@ -7796,15 +7797,15 @@
       <c r="E178" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F178" s="1">
+      <c r="F178" s="3">
         <v>400</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:7">
-      <c r="A179" s="1" t="s">
+      <c r="A179" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -7819,15 +7820,15 @@
       <c r="E179" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F179" s="1">
+      <c r="F179" s="3">
         <v>400</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="G179" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:7">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="3" t="s">
         <v>365</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -7842,15 +7843,15 @@
       <c r="E180" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="F180" s="1">
+      <c r="F180" s="3">
         <v>400</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B181" s="4" t="s">
@@ -7865,15 +7866,15 @@
       <c r="E181" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F181" s="1">
-        <v>404</v>
-      </c>
-      <c r="G181" s="1" t="s">
+      <c r="F181" s="3">
+        <v>404</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="3" t="s">
         <v>369</v>
       </c>
       <c r="B182" s="4" t="s">
@@ -7888,15 +7889,15 @@
       <c r="E182" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="F182" s="1">
+      <c r="F182" s="3">
         <v>400</v>
       </c>
-      <c r="G182" s="1" t="s">
+      <c r="G182" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="3" t="s">
         <v>372</v>
       </c>
       <c r="B183" s="4" t="s">
@@ -7911,15 +7912,15 @@
       <c r="E183" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="F183" s="1">
+      <c r="F183" s="3">
         <v>400</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="3" t="s">
         <v>375</v>
       </c>
       <c r="B184" s="4" t="s">
@@ -7934,15 +7935,15 @@
       <c r="E184" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="F184" s="1">
-        <v>404</v>
-      </c>
-      <c r="G184" s="1" t="s">
+      <c r="F184" s="3">
+        <v>404</v>
+      </c>
+      <c r="G184" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -7957,15 +7958,15 @@
       <c r="E185" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F185" s="1">
+      <c r="F185" s="3">
         <v>400</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B186" s="4" t="s">
@@ -7980,15 +7981,15 @@
       <c r="E186" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="F186" s="1">
+      <c r="F186" s="3">
         <v>400</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="G186" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:7">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="3" t="s">
         <v>382</v>
       </c>
       <c r="B187" s="4" t="s">
@@ -8003,15 +8004,15 @@
       <c r="E187" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="F187" s="1">
+      <c r="F187" s="3">
         <v>400</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G187" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:7">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="3" t="s">
         <v>385</v>
       </c>
       <c r="B188" s="4" t="s">
@@ -8026,15 +8027,15 @@
       <c r="E188" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F188" s="1">
-        <v>404</v>
-      </c>
-      <c r="G188" s="1" t="s">
+      <c r="F188" s="3">
+        <v>404</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:7">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="3" t="s">
         <v>387</v>
       </c>
       <c r="B189" s="4" t="s">
@@ -8049,15 +8050,15 @@
       <c r="E189" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="F189" s="1">
-        <v>404</v>
-      </c>
-      <c r="G189" s="1" t="s">
+      <c r="F189" s="3">
+        <v>404</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:7">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="3" t="s">
         <v>389</v>
       </c>
       <c r="B190" s="4" t="s">
@@ -8072,15 +8073,15 @@
       <c r="E190" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F190" s="1">
+      <c r="F190" s="3">
         <v>400</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:7">
-      <c r="A191" s="1" t="s">
+      <c r="A191" s="3" t="s">
         <v>390</v>
       </c>
       <c r="B191" s="4" t="s">
@@ -8095,15 +8096,15 @@
       <c r="E191" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F191" s="1">
+      <c r="F191" s="3">
         <v>400</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="G191" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:7">
-      <c r="A192" s="1" t="s">
+      <c r="A192" s="3" t="s">
         <v>391</v>
       </c>
       <c r="B192" s="4" t="s">
@@ -8118,15 +8119,15 @@
       <c r="E192" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="F192" s="1">
+      <c r="F192" s="3">
         <v>400</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="G192" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="1" t="s">
+      <c r="A193" s="3" t="s">
         <v>392</v>
       </c>
       <c r="B193" s="4" t="s">
@@ -8141,15 +8142,15 @@
       <c r="E193" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="F193" s="1">
+      <c r="F193" s="3">
         <v>400</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="G193" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="3" t="s">
         <v>393</v>
       </c>
       <c r="B194" s="4" t="s">
@@ -8164,15 +8165,15 @@
       <c r="E194" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="F194" s="1">
+      <c r="F194" s="3">
         <v>400</v>
       </c>
-      <c r="G194" s="1" t="s">
+      <c r="G194" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="3" t="s">
         <v>394</v>
       </c>
       <c r="B195" s="4" t="s">
@@ -8187,15 +8188,15 @@
       <c r="E195" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F195" s="1">
+      <c r="F195" s="3">
         <v>400</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="G195" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -8210,15 +8211,15 @@
       <c r="E196" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F196" s="1">
+      <c r="F196" s="3">
         <v>400</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:7">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B197" s="4" t="s">
@@ -8233,15 +8234,15 @@
       <c r="E197" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F197" s="1">
+      <c r="F197" s="3">
         <v>400</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B198" s="4" t="s">
@@ -8256,15 +8257,15 @@
       <c r="E198" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F198" s="1">
+      <c r="F198" s="3">
         <v>400</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:7">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="3" t="s">
         <v>398</v>
       </c>
       <c r="B199" s="4" t="s">
@@ -8279,15 +8280,15 @@
       <c r="E199" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="F199" s="1">
+      <c r="F199" s="3">
         <v>400</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G199" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:7">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="3" t="s">
         <v>400</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -8302,15 +8303,15 @@
       <c r="E200" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="F200" s="1">
-        <v>404</v>
-      </c>
-      <c r="G200" s="1" t="s">
+      <c r="F200" s="3">
+        <v>404</v>
+      </c>
+      <c r="G200" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:7">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B201" s="4" t="s">
@@ -8325,15 +8326,15 @@
       <c r="E201" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F201" s="1">
-        <v>404</v>
-      </c>
-      <c r="G201" s="1" t="s">
+      <c r="F201" s="3">
+        <v>404</v>
+      </c>
+      <c r="G201" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="3" t="s">
         <v>405</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -8348,15 +8349,15 @@
       <c r="E202" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F202" s="1">
-        <v>404</v>
-      </c>
-      <c r="G202" s="1" t="s">
+      <c r="F202" s="3">
+        <v>404</v>
+      </c>
+      <c r="G202" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B203" s="4" t="s">
@@ -8371,15 +8372,15 @@
       <c r="E203" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="F203" s="1">
+      <c r="F203" s="3">
         <v>400</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="G203" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="3" t="s">
         <v>411</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -8394,15 +8395,15 @@
       <c r="E204" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F204" s="1">
+      <c r="F204" s="3">
         <v>400</v>
       </c>
-      <c r="G204" s="1" t="s">
+      <c r="G204" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:7">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="3" t="s">
         <v>414</v>
       </c>
       <c r="B205" s="4" t="s">
@@ -8417,15 +8418,15 @@
       <c r="E205" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="F205" s="1">
+      <c r="F205" s="3">
         <v>400</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="G205" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:7">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B206" s="4" t="s">
@@ -8440,15 +8441,15 @@
       <c r="E206" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F206" s="1">
+      <c r="F206" s="3">
         <v>400</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="G206" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:7">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="3" t="s">
         <v>420</v>
       </c>
       <c r="B207" s="4" t="s">
@@ -8463,15 +8464,15 @@
       <c r="E207" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F207" s="1">
+      <c r="F207" s="3">
         <v>400</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="G207" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:7">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="3" t="s">
         <v>422</v>
       </c>
       <c r="B208" s="4" t="s">
@@ -8486,15 +8487,15 @@
       <c r="E208" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="F208" s="1">
+      <c r="F208" s="3">
         <v>400</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="G208" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="1" t="s">
+      <c r="A209" s="3" t="s">
         <v>425</v>
       </c>
       <c r="B209" s="4" t="s">
@@ -8509,15 +8510,15 @@
       <c r="E209" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="F209" s="1">
+      <c r="F209" s="3">
         <v>400</v>
       </c>
-      <c r="G209" s="1" t="s">
+      <c r="G209" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="1" t="s">
+      <c r="A210" s="3" t="s">
         <v>428</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -8532,15 +8533,15 @@
       <c r="E210" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F210" s="1">
+      <c r="F210" s="3">
         <v>400</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="G210" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="1" t="s">
+      <c r="A211" s="3" t="s">
         <v>430</v>
       </c>
       <c r="B211" s="4" t="s">
@@ -8555,15 +8556,15 @@
       <c r="E211" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="F211" s="1">
+      <c r="F211" s="3">
         <v>400</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="G211" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="3" t="s">
         <v>432</v>
       </c>
       <c r="B212" s="4" t="s">
@@ -8578,15 +8579,15 @@
       <c r="E212" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F212" s="1">
+      <c r="F212" s="3">
         <v>400</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:7">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="3" t="s">
         <v>434</v>
       </c>
       <c r="B213" s="4" t="s">
@@ -8601,15 +8602,15 @@
       <c r="E213" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F213" s="1">
+      <c r="F213" s="3">
         <v>400</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:7">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="3" t="s">
         <v>437</v>
       </c>
       <c r="B214" s="4" t="s">
@@ -8624,15 +8625,15 @@
       <c r="E214" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="F214" s="1">
+      <c r="F214" s="3">
         <v>400</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:7">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B215" s="4" t="s">
@@ -8647,15 +8648,15 @@
       <c r="E215" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="F215" s="1">
+      <c r="F215" s="3">
         <v>200</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:7">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -8670,21 +8671,21 @@
       <c r="E216" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="F216" s="1">
+      <c r="F216" s="3">
         <v>400</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="217" ht="42.75" spans="1:7">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="B217" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C217" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D217" s="4" t="s">
@@ -8694,14 +8695,14 @@
         <v>444</v>
       </c>
       <c r="F217" s="4">
-        <v>403</v>
-      </c>
-      <c r="G217" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G217" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="3" t="s">
         <v>445</v>
       </c>
       <c r="B218" s="5" t="s">
@@ -8717,20 +8718,20 @@
         <v>125</v>
       </c>
       <c r="F218" s="4">
-        <v>404</v>
-      </c>
-      <c r="G218" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G218" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="1" t="s">
+      <c r="A219" s="3" t="s">
         <v>447</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C219" s="3" t="s">
         <v>448</v>
       </c>
       <c r="D219" s="4" t="s">
@@ -8742,35 +8743,35 @@
       <c r="F219" s="4">
         <v>403</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="1" t="s">
+      <c r="A220" s="3" t="s">
         <v>449</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="C220" s="3" t="s">
         <v>450</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F220" s="4">
-        <v>403</v>
-      </c>
-      <c r="G220" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G220" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:7">
-      <c r="A221" s="1" t="s">
+      <c r="A221" s="3" t="s">
         <v>451</v>
       </c>
       <c r="B221" s="5" t="s">
@@ -8786,20 +8787,20 @@
         <v>125</v>
       </c>
       <c r="F221" s="4">
-        <v>404</v>
-      </c>
-      <c r="G221" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G221" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C222" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D222" s="4" t="s">
@@ -8809,14 +8810,14 @@
         <v>122</v>
       </c>
       <c r="F222" s="4">
-        <v>403</v>
-      </c>
-      <c r="G222" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:7">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="3" t="s">
         <v>455</v>
       </c>
       <c r="B223" s="5" t="s">
@@ -8834,18 +8835,18 @@
       <c r="F223" s="4">
         <v>404</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="3" t="s">
         <v>456</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D224" s="4" t="s">
@@ -8855,37 +8856,37 @@
         <v>122</v>
       </c>
       <c r="F224" s="4">
-        <v>403</v>
-      </c>
-      <c r="G224" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G224" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="3" t="s">
         <v>457</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C225" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D225" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E225" s="1" t="s">
+      <c r="E225" s="3" t="s">
         <v>130</v>
       </c>
       <c r="F225" s="4">
-        <v>403</v>
-      </c>
-      <c r="G225" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G225" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="3" t="s">
         <v>458</v>
       </c>
       <c r="B226" s="5" t="s">
@@ -8900,21 +8901,21 @@
       <c r="E226" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F226" s="1">
-        <v>404</v>
-      </c>
-      <c r="G226" s="1" t="s">
+      <c r="F226" s="3">
+        <v>404</v>
+      </c>
+      <c r="G226" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="3" t="s">
         <v>459</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C227" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D227" s="4" t="s">
@@ -8923,15 +8924,15 @@
       <c r="E227" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F227" s="1">
-        <v>403</v>
-      </c>
-      <c r="G227" s="1" t="s">
+      <c r="F227" s="3">
+        <v>200</v>
+      </c>
+      <c r="G227" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:7">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="3" t="s">
         <v>462</v>
       </c>
       <c r="B228" s="5" t="s">
@@ -8946,21 +8947,21 @@
       <c r="E228" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F228" s="1">
-        <v>404</v>
-      </c>
-      <c r="G228" s="1" t="s">
+      <c r="F228" s="3">
+        <v>404</v>
+      </c>
+      <c r="G228" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:7">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="3" t="s">
         <v>463</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C229" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D229" s="4" t="s">
@@ -8969,21 +8970,21 @@
       <c r="E229" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F229" s="1">
-        <v>403</v>
-      </c>
-      <c r="G229" s="1" t="s">
+      <c r="F229" s="3">
+        <v>200</v>
+      </c>
+      <c r="G229" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:7">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="3" t="s">
         <v>464</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="C230" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D230" s="4" t="s">
@@ -8992,15 +8993,15 @@
       <c r="E230" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F230" s="1">
-        <v>403</v>
-      </c>
-      <c r="G230" s="1" t="s">
+      <c r="F230" s="3">
+        <v>400</v>
+      </c>
+      <c r="G230" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:7">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="3" t="s">
         <v>465</v>
       </c>
       <c r="B231" s="5" t="s">
@@ -9015,21 +9016,21 @@
       <c r="E231" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="F231" s="1">
-        <v>404</v>
-      </c>
-      <c r="G231" s="1" t="s">
+      <c r="F231" s="3">
+        <v>404</v>
+      </c>
+      <c r="G231" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:7">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="3" t="s">
         <v>466</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="C232" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D232" s="4" t="s">
@@ -9038,15 +9039,15 @@
       <c r="E232" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F232" s="1">
-        <v>403</v>
-      </c>
-      <c r="G232" s="1" t="s">
+      <c r="F232" s="3">
+        <v>400</v>
+      </c>
+      <c r="G232" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="3" t="s">
         <v>468</v>
       </c>
       <c r="B233" s="5" t="s">
@@ -9061,21 +9062,21 @@
       <c r="E233" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F233" s="1">
+      <c r="F233" s="3">
         <v>400</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G233" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="3" t="s">
         <v>470</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="C234" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D234" s="4" t="s">
@@ -9084,38 +9085,38 @@
       <c r="E234" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F234" s="1">
-        <v>403</v>
-      </c>
-      <c r="G234" s="1" t="s">
+      <c r="F234" s="3">
+        <v>400</v>
+      </c>
+      <c r="G234" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="3" t="s">
         <v>472</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="C235" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E235" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="F235" s="1">
-        <v>403</v>
-      </c>
-      <c r="G235" s="1" t="s">
+      <c r="F235" s="3">
+        <v>400</v>
+      </c>
+      <c r="G235" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:7">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="3" t="s">
         <v>474</v>
       </c>
       <c r="B236" s="5" t="s">
@@ -9130,21 +9131,21 @@
       <c r="E236" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="F236" s="1">
-        <v>404</v>
-      </c>
-      <c r="G236" s="1" t="s">
+      <c r="F236" s="3">
+        <v>404</v>
+      </c>
+      <c r="G236" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:7">
-      <c r="A237" s="1" t="s">
+      <c r="A237" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="B237" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C237" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D237" s="4" t="s">
@@ -9153,18 +9154,18 @@
       <c r="E237" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F237" s="1">
+      <c r="F237" s="3">
         <v>403</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="G237" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="1" t="s">
+      <c r="A238" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="B238" s="3" t="s">
         <v>479</v>
       </c>
       <c r="C238" s="5" t="s">
@@ -9176,21 +9177,21 @@
       <c r="E238" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F238" s="1">
-        <v>404</v>
-      </c>
-      <c r="G238" s="1" t="s">
+      <c r="F238" s="3">
+        <v>404</v>
+      </c>
+      <c r="G238" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="1" t="s">
+      <c r="A239" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="B239" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="C239" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D239" s="4" t="s">
@@ -9199,41 +9200,41 @@
       <c r="E239" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F239" s="1">
+      <c r="F239" s="3">
         <v>403</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G239" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B240" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="C240" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D240" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F240" s="1">
+      <c r="F240" s="3">
         <v>403</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G240" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="B241" s="3" t="s">
         <v>479</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -9245,21 +9246,21 @@
       <c r="E241" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F241" s="1">
-        <v>404</v>
-      </c>
-      <c r="G241" s="1" t="s">
+      <c r="F241" s="3">
+        <v>404</v>
+      </c>
+      <c r="G241" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:7">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="B242" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="C242" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D242" s="4" t="s">
@@ -9268,18 +9269,18 @@
       <c r="E242" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F242" s="1">
+      <c r="F242" s="3">
         <v>403</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="G242" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:7">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B243" s="3" t="s">
         <v>488</v>
       </c>
       <c r="C243" s="5" t="s">
@@ -9291,21 +9292,21 @@
       <c r="E243" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F243" s="1">
-        <v>404</v>
-      </c>
-      <c r="G243" s="1" t="s">
+      <c r="F243" s="3">
+        <v>404</v>
+      </c>
+      <c r="G243" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:7">
-      <c r="A244" s="1" t="s">
+      <c r="A244" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="B244" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C244" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D244" s="4" t="s">
@@ -9314,41 +9315,41 @@
       <c r="E244" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F244" s="1">
+      <c r="F244" s="3">
         <v>403</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="G244" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:7">
-      <c r="A245" s="1" t="s">
+      <c r="A245" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="B245" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C245" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D245" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E245" s="1" t="s">
+      <c r="E245" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="F245" s="1">
+      <c r="F245" s="3">
         <v>403</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="G245" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:7">
-      <c r="A246" s="1" t="s">
+      <c r="A246" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="B246" s="3" t="s">
         <v>488</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -9360,10 +9361,10 @@
       <c r="E246" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F246" s="1">
-        <v>404</v>
-      </c>
-      <c r="G246" s="1" t="s">
+      <c r="F246" s="3">
+        <v>404</v>
+      </c>
+      <c r="G246" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -9380,6 +9381,138 @@
     <hyperlink ref="C145" r:id="rId1" display="https://accounts.google.com/o/oauth2/v2/auth"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="15" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>404</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>404</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
+        <v>404</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4">
+        <v>404</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
